--- a/dtpu_configurations/only_integer8/120mhz/mxu_3x3/utilization.xlsx
+++ b/dtpu_configurations/only_integer8/120mhz/mxu_3x3/utilization.xlsx
@@ -160,7 +160,7 @@
         <v>5.344827651977539</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>11.11936092376709</v>
+        <v>11.12030029296875</v>
       </c>
       <c r="E2" t="n" s="4">
         <v>34.28571701049805</v>
